--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -137,25 +137,25 @@
     <t xml:space="preserve">permettre à l'utilisateur de paramêtrer l'application </t>
   </si>
   <si>
-    <t>garder un historique des temps de tir</t>
-  </si>
-  <si>
     <t>intégrer les bouttons "tir  fini, danger, pause" etc.</t>
   </si>
   <si>
-    <t>faire un module permettant de contabiliser des scores pour un archer</t>
-  </si>
-  <si>
-    <t>module de score: permettre à l'utilisateur de noter une volée, stocker le résultat et additioner les points</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> module de score: intégrer plusieures volées qui s'aditionnent,avec un poinage final</t>
-  </si>
-  <si>
-    <t>module de score: archiver une fita terminée dans une base de données sqlite</t>
-  </si>
-  <si>
-    <t>chercher et éliminer des bugs</t>
+    <t xml:space="preserve">créer des profils par défaut </t>
+  </si>
+  <si>
+    <t>Créer une minuterie de temps de pause</t>
+  </si>
+  <si>
+    <t>permettreà l'utilisateru de se créer des racourcis de paramètres personnalisés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">créer un mode confromtation </t>
+  </si>
+  <si>
+    <t>chercher et éliminer les bugs</t>
+  </si>
+  <si>
+    <t>permettre à l'utilisateur d'importer son propre sond de sifflet</t>
   </si>
 </sst>
 </file>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,6 +336,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -351,8 +355,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1611,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1701,8 +1705,8 @@
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>40</v>
+      <c r="B19" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
@@ -1720,17 +1724,17 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
+      <c r="A21" s="19">
         <v>6</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="11">
         <f>SUM(C16:C21)</f>
         <v>41</v>
@@ -1772,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
@@ -1785,7 +1789,9 @@
       <c r="B28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
@@ -1795,7 +1801,7 @@
         <v>42</v>
       </c>
       <c r="C29" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1806,18 +1812,18 @@
         <v>43</v>
       </c>
       <c r="C30" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="3">
-        <v>10</v>
+      <c r="B31" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="26">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1825,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3">
         <v>13</v>
@@ -1839,10 +1845,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>49</v>
@@ -2042,10 +2048,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2070,22 +2076,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2277,10 +2283,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2305,22 +2311,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2510,10 +2516,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2538,22 +2544,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2743,10 +2749,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2771,22 +2777,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>permettre à l'utilisateur d'importer son propre sond de sifflet</t>
+  </si>
+  <si>
+    <t>apprendre à créer un timer</t>
+  </si>
+  <si>
+    <t>implémenter le compte à rebours dans l'application</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -354,10 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1731,10 +1738,10 @@
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="11">
         <f>SUM(C16:C21)</f>
         <v>41</v>
@@ -1819,10 +1826,10 @@
       <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="21">
         <v>4</v>
       </c>
     </row>
@@ -1845,10 +1852,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>49</v>
@@ -1875,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,24 +1940,48 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42765</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="22">
+        <v>42766</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="22">
+        <v>42772</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="22">
+        <v>42773</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -2048,13 +2079,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2076,22 +2107,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2283,10 +2314,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2311,22 +2342,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2516,10 +2547,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2544,22 +2575,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2749,10 +2780,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2777,22 +2808,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>implémenter le compte à rebours dans l'application</t>
+  </si>
+  <si>
+    <t>implémenter le compte à rebours dans l'application et les conditions de fin</t>
+  </si>
+  <si>
+    <t>implémenter les boutons de pause et d'arrêt du compte à rebours dans l'application</t>
+  </si>
+  <si>
+    <t>changements cosmétiques dans l'interface</t>
+  </si>
+  <si>
+    <t>peu productif durant les heures de travail, mais la recherche prends du temps. Je crois que lebout le plus difficile était d'implémenter le compte à rebours.</t>
   </si>
 </sst>
 </file>
@@ -1882,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1984,19 +1996,37 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="22">
+        <v>42779</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="22">
+        <v>42780</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="22">
+        <v>42784</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -2085,7 +2115,7 @@
       <c r="B37" s="24"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2098,7 +2128,9 @@
       <c r="A40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -2107,7 +2139,9 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="25" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="26"/>

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>peu productif durant les heures de travail, mais la recherche prends du temps. Je crois que lebout le plus difficile était d'implémenter le compte à rebours.</t>
+  </si>
+  <si>
+    <t>optimisation du code et élimination de bogue</t>
+  </si>
+  <si>
+    <t>corrections de bogues</t>
+  </si>
+  <si>
+    <t>implémentation des 10 secondes pour embarquer sur la ligne de tir</t>
   </si>
 </sst>
 </file>
@@ -317,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,6 +387,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1894,7 +1905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2173,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2231,19 +2242,37 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42793</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="28">
+        <v>42800</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="29">
+        <v>42807</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -2354,7 +2383,7 @@
       <c r="B37" s="24"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>implémentation des 10 secondes pour embarquer sur la ligne de tir</t>
+  </si>
+  <si>
+    <t>très peu de travail. Le projet de mi-cession a pris la priorité. Une excuse, mais pas une raison.</t>
   </si>
 </sst>
 </file>
@@ -372,6 +375,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -387,8 +392,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1761,10 +1764,10 @@
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="11">
         <f>SUM(C16:C21)</f>
         <v>41</v>
@@ -1875,10 +1878,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>49</v>
@@ -2120,10 +2123,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>16</v>
@@ -2150,24 +2153,24 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="26"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="26"/>
+      <c r="B45" s="28"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="26"/>
+      <c r="B46" s="28"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="27"/>
+      <c r="B47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2184,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2253,7 +2256,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="A15" s="23">
         <v>42800</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2264,7 +2267,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+      <c r="A16" s="24">
         <v>42807</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2377,10 +2380,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>7</v>
@@ -2396,7 +2399,9 @@
       <c r="A40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -2405,22 +2410,24 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="26"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="26"/>
+      <c r="B45" s="28"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="26"/>
+      <c r="B46" s="28"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="27"/>
+      <c r="B47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2437,7 +2444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD47"/>
     </sheetView>
   </sheetViews>
@@ -2610,10 +2617,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2638,22 +2645,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="27"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="26"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="26"/>
+      <c r="B45" s="28"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="26"/>
+      <c r="B46" s="28"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="27"/>
+      <c r="B47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2843,10 +2850,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2871,22 +2878,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="27"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="26"/>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="26"/>
+      <c r="B45" s="28"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="26"/>
+      <c r="B46" s="28"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="27"/>
+      <c r="B47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
@@ -13,12 +13,12 @@
     <sheet name="Iteration #3" sheetId="4" r:id="rId4"/>
     <sheet name="Iteration #4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -186,12 +186,27 @@
   </si>
   <si>
     <t>très peu de travail. Le projet de mi-cession a pris la priorité. Une excuse, mais pas une raison.</t>
+  </si>
+  <si>
+    <t>insertion du prochain groupe de tir</t>
+  </si>
+  <si>
+    <t>(Mise à jour android studio) amélioration de l'interface</t>
+  </si>
+  <si>
+    <t>le cycle se termine lorsque les 10 volées sont terminées, changements d'interfaces</t>
+  </si>
+  <si>
+    <t>converitr le int en temps (1:10 au lieu  de 70) correction de bugs</t>
+  </si>
+  <si>
+    <t>le résultat désiré est obtenu, mais le temps dammandé n'a pas été respecté.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +441,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Rectangle 2"/>
+        <xdr:cNvPr id="1026" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -488,7 +509,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvPr id="3" name="ZoneTexte 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -548,7 +575,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="dicj1"/>
+        <xdr:cNvPr id="2" name="Image 1" descr="dicj1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -616,7 +649,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 2"/>
+        <xdr:cNvPr id="5" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -678,7 +717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ZoneTexte 5"/>
+        <xdr:cNvPr id="6" name="ZoneTexte 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -738,7 +783,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6" descr="dicj1"/>
+        <xdr:cNvPr id="7" name="Image 6" descr="dicj1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -806,7 +857,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 2"/>
+        <xdr:cNvPr id="2" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -868,7 +925,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvPr id="3" name="ZoneTexte 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -928,7 +991,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="dicj1"/>
+        <xdr:cNvPr id="4" name="Image 3" descr="dicj1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -996,7 +1065,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 2"/>
+        <xdr:cNvPr id="2" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1058,7 +1133,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvPr id="3" name="ZoneTexte 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1118,7 +1199,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="dicj1"/>
+        <xdr:cNvPr id="4" name="Image 3" descr="dicj1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1186,7 +1273,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 2"/>
+        <xdr:cNvPr id="2" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1248,7 +1341,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvPr id="3" name="ZoneTexte 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1308,7 +1407,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="dicj1"/>
+        <xdr:cNvPr id="4" name="Image 3" descr="dicj1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1435,6 +1540,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1470,6 +1592,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2444,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2502,24 +2641,48 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42815</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="23">
+        <v>42821</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="23">
+        <v>42822</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="23">
+        <v>42828</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -2623,7 +2786,7 @@
       <c r="B37" s="26"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2636,7 +2799,9 @@
       <c r="A40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -2645,7 +2810,9 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="27" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="28"/>

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>le résultat désiré est obtenu, mais le temps dammandé n'a pas été respecté.</t>
+  </si>
+  <si>
+    <t>travail</t>
+  </si>
+  <si>
+    <t>implémenter les commandes sonores dans l'appli</t>
+  </si>
+  <si>
+    <t>finaliser d'implémenter les commandes sonores dans l'appli</t>
+  </si>
+  <si>
+    <t>apprendre à implémenter des commandes snonres dans une appli</t>
+  </si>
+  <si>
+    <t>création des sonds à implémenter dans l'ap^pli</t>
   </si>
 </sst>
 </file>
@@ -2583,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B47"/>
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2685,17 +2700,23 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="23">
+        <v>42829</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4"/>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="4"/>
       <c r="C20" s="15"/>
     </row>
@@ -2786,7 +2807,7 @@
       <c r="B37" s="26"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2844,8 +2865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2902,44 +2923,92 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42835</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="23">
+        <v>42836</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="23">
+        <v>42842</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="23">
+        <v>42843</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="23">
+        <v>42849</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="23">
+        <v>42850</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="23">
+        <v>42856</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="23">
+        <v>42857</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -3023,7 +3092,7 @@
       <c r="B37" s="26"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
